--- a/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,17</t>
+          <t>0,68; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,21</t>
+          <t>0,82; 3,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,52</t>
+          <t>0,49; 5,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,17</t>
+          <t>1,31; 4,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,74</t>
+          <t>1,84; 5,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,0</t>
+          <t>1,69; 5,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,5</t>
+          <t>0,05; 3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,13</t>
+          <t>1,3; 3,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,7</t>
+          <t>1,64; 3,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,87</t>
+          <t>1,04; 2,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,42</t>
+          <t>0,58; 3,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,75</t>
+          <t>1,88; 4,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,35</t>
+          <t>2,25; 5,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,31</t>
+          <t>2,0; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,59</t>
+          <t>2,97; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,1</t>
+          <t>3,36; 7,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,76</t>
+          <t>2,98; 6,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,51</t>
+          <t>2,88; 6,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,72</t>
+          <t>0,51; 2,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,06</t>
+          <t>2,84; 4,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,37</t>
+          <t>3,09; 5,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,21</t>
+          <t>2,9; 5,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,75</t>
+          <t>2,0; 4,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,01</t>
+          <t>2,8; 5,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,37</t>
+          <t>4,53; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,53</t>
+          <t>3,56; 7,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,08</t>
+          <t>3,8; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,24</t>
+          <t>6,14; 10,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 13,83</t>
+          <t>8,93; 13,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,71</t>
+          <t>5,42; 9,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,64</t>
+          <t>5,76; 9,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,61</t>
+          <t>4,88; 7,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,34</t>
+          <t>7,32; 10,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,77</t>
+          <t>5,07; 7,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,19</t>
+          <t>5,31; 8,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,01</t>
+          <t>5,22; 9,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 13,39</t>
+          <t>8,58; 13,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,55</t>
+          <t>9,15; 14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 38,5</t>
+          <t>10,4; 34,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,74</t>
+          <t>11,97; 18,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,2</t>
+          <t>13,5; 19,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 18,37</t>
+          <t>12,83; 18,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,68</t>
+          <t>12,28; 17,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,23</t>
+          <t>9,47; 13,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 15,74</t>
+          <t>11,83; 16,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,83</t>
+          <t>11,83; 15,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 26,38</t>
+          <t>12,32; 26,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,74</t>
+          <t>16,9; 24,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,94; 23,61</t>
+          <t>16,07; 24,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 23,18</t>
+          <t>15,13; 22,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 23,33</t>
+          <t>17,08; 23,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,46; 32,34</t>
+          <t>23,97; 32,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,62; 42,16</t>
+          <t>32,83; 42,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,44; 36,08</t>
+          <t>27,43; 35,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,61; 27,98</t>
+          <t>22,18; 27,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,66</t>
+          <t>21,28; 27,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,87</t>
+          <t>25,69; 32,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 28,33</t>
+          <t>22,8; 28,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,91</t>
+          <t>20,45; 24,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,1; 42,4</t>
+          <t>33,92; 42,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,5</t>
+          <t>45,11; 54,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,77; 46,45</t>
+          <t>37,91; 45,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,91</t>
+          <t>31,91; 37,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,77; 68,39</t>
+          <t>60,57; 67,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,28; 71,94</t>
+          <t>64,79; 71,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,48; 62,15</t>
+          <t>55,01; 62,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,37; 57,99</t>
+          <t>35,46; 57,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,24; 56,15</t>
+          <t>50,16; 55,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,45; 62,74</t>
+          <t>57,31; 62,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 54,1</t>
+          <t>48,7; 54,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,33; 48,0</t>
+          <t>34,22; 48,03</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,1; 12,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,43; 16,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,67; 15,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,74</t>
+          <t>14,46; 21,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>19,99; 22,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,82; 26,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,11; 24,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,12</t>
+          <t>19,35; 23,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,53; 17,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,02; 21,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,43; 19,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 21,26</t>
+          <t>18,13; 21,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,03</t>
+          <t>0,75; 3,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,46</t>
+          <t>0,82; 3,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,14</t>
+          <t>1,3; 4,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,76</t>
+          <t>1,93; 5,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,21</t>
+          <t>1,72; 5,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,17</t>
+          <t>1,23; 3,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,9</t>
+          <t>1,63; 3,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,9</t>
+          <t>0,99; 2,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,51</t>
+          <t>1,93; 4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,21</t>
+          <t>2,34; 5,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,28</t>
+          <t>2,08; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,02</t>
+          <t>3,4; 7,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,69</t>
+          <t>3,04; 6,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,46</t>
+          <t>2,86; 6,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,99</t>
+          <t>3,03; 5,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,46</t>
+          <t>3,03; 5,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,09</t>
+          <t>2,86; 5,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,97</t>
+          <t>2,81; 6,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,13</t>
+          <t>4,35; 8,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,21</t>
+          <t>3,65; 7,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,66</t>
+          <t>6,08; 10,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,37</t>
+          <t>8,98; 13,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,58</t>
+          <t>5,76; 10,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,66</t>
+          <t>4,92; 7,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 10,41</t>
+          <t>7,24; 10,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,77</t>
+          <t>5,06; 7,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,64</t>
+          <t>5,22; 9,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 13,71</t>
+          <t>8,24; 13,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,65</t>
+          <t>9,16; 14,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,54</t>
+          <t>12,3; 18,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,74</t>
+          <t>13,53; 19,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 18,73</t>
+          <t>12,68; 18,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,35</t>
+          <t>9,26; 13,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,05</t>
+          <t>11,85; 15,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,6</t>
+          <t>11,8; 15,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 24,61</t>
+          <t>16,76; 24,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 24,13</t>
+          <t>16,21; 23,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 22,79</t>
+          <t>15,48; 23,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 32,58</t>
+          <t>23,57; 32,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,83; 42,02</t>
+          <t>32,86; 42,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,43; 35,83</t>
+          <t>27,12; 36,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,47</t>
+          <t>21,3; 27,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,69; 32,2</t>
+          <t>25,48; 31,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,8; 28,6</t>
+          <t>22,52; 28,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,92; 42,33</t>
+          <t>33,62; 42,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,11; 54,05</t>
+          <t>45,16; 54,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,91; 45,54</t>
+          <t>38,05; 45,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,57; 67,95</t>
+          <t>60,67; 68,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,79; 71,74</t>
+          <t>64,87; 71,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,01; 62,32</t>
+          <t>54,84; 62,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,16; 55,92</t>
+          <t>50,14; 55,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,31; 62,87</t>
+          <t>57,36; 63,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 54,08</t>
+          <t>48,76; 54,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,34</t>
+          <t>10,25; 12,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,08</t>
+          <t>13,34; 16,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,67; 15,03</t>
+          <t>12,81; 15,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,99; 22,83</t>
+          <t>19,97; 22,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,82; 26,69</t>
+          <t>23,79; 26,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,11; 24,14</t>
+          <t>21,24; 24,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,29</t>
+          <t>15,48; 17,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 21,05</t>
+          <t>19,07; 21,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,43; 19,35</t>
+          <t>17,39; 19,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,26</t>
+          <t>0,77; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,5</t>
+          <t>0,74; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,81</t>
+          <t>0,49; 5,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,31</t>
+          <t>1,22; 4,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,67</t>
+          <t>1,86; 5,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,24</t>
+          <t>1,64; 5,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,76</t>
+          <t>0,04; 3,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,1</t>
+          <t>1,28; 3,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,99</t>
+          <t>1,55; 3,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,91</t>
+          <t>0,98; 2,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>0,52; 3,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,68</t>
+          <t>1,87; 4,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,08</t>
+          <t>2,27; 5,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,28</t>
+          <t>2,03; 5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,82</t>
+          <t>2,99; 8,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,36</t>
+          <t>3,46; 7,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,68</t>
+          <t>3,19; 6,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,73</t>
+          <t>2,88; 6,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,59</t>
+          <t>0,46; 2,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,24</t>
+          <t>2,9; 5,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,29</t>
+          <t>3,07; 5,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,24</t>
+          <t>2,82; 5,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,79</t>
+          <t>1,88; 4,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,12</t>
+          <t>2,77; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,03</t>
+          <t>4,46; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,12</t>
+          <t>3,73; 7,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,07</t>
+          <t>3,75; 8,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,33</t>
+          <t>6,11; 10,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,91</t>
+          <t>8,73; 13,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,07</t>
+          <t>5,63; 9,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,61</t>
+          <t>5,9; 9,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,67</t>
+          <t>4,84; 7,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,44</t>
+          <t>7,31; 10,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,84</t>
+          <t>5,14; 7,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,22</t>
+          <t>5,35; 8,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,92</t>
+          <t>5,21; 10,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,63</t>
+          <t>8,12; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,42</t>
+          <t>9,27; 14,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 34,2</t>
+          <t>10,69; 38,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 18,76</t>
+          <t>12,43; 18,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,8</t>
+          <t>13,87; 20,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,59</t>
+          <t>12,98; 18,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 17,69</t>
+          <t>12,35; 17,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,3</t>
+          <t>9,27; 13,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 15,88</t>
+          <t>11,97; 15,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 15,91</t>
+          <t>11,78; 15,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 26,69</t>
+          <t>12,05; 26,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 24,57</t>
+          <t>16,89; 24,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 23,93</t>
+          <t>15,94; 23,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 23,3</t>
+          <t>15,33; 23,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 23,62</t>
+          <t>17,07; 23,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,57</t>
+          <t>23,46; 32,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,86; 42,39</t>
+          <t>32,62; 42,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,12; 36,02</t>
+          <t>27,44; 36,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,18; 27,81</t>
+          <t>22,61; 27,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,3; 27,17</t>
+          <t>21,59; 27,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,48; 31,79</t>
+          <t>25,73; 31,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,52; 28,33</t>
+          <t>22,33; 28,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 24,79</t>
+          <t>20,44; 24,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,62; 42,32</t>
+          <t>34,1; 42,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,16; 54,03</t>
+          <t>44,29; 53,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,05; 45,62</t>
+          <t>37,77; 46,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,91; 37,94</t>
+          <t>31,82; 37,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,67; 68,07</t>
+          <t>60,77; 68,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,87; 71,76</t>
+          <t>65,28; 71,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,84; 62,54</t>
+          <t>54,48; 62,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,46; 57,97</t>
+          <t>37,37; 57,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,14; 55,83</t>
+          <t>50,24; 56,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,36; 63,2</t>
+          <t>57,45; 62,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,76; 54,15</t>
+          <t>48,7; 54,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,22; 48,03</t>
+          <t>35,33; 48,0</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,25; 12,43</t>
+          <t>10,13; 12,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 16,0</t>
+          <t>13,31; 15,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,81; 15,11</t>
+          <t>12,77; 15,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 21,12</t>
+          <t>14,43; 20,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 22,75</t>
+          <t>20,21; 23,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,79; 26,93</t>
+          <t>23,93; 26,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,24; 24,12</t>
+          <t>21,15; 24,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,29</t>
+          <t>19,59; 23,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,27</t>
+          <t>15,48; 17,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,07; 21,06</t>
+          <t>19,24; 21,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,28</t>
+          <t>17,31; 19,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,32</t>
+          <t>18,07; 21,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,52</t>
+          <t>0,42; 5,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,5</t>
+          <t>0,05; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,42</t>
+          <t>0,49; 3,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,59</t>
+          <t>3,03; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,72</t>
+          <t>0,4; 2,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,75</t>
+          <t>1,78; 4,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,08</t>
+          <t>3,81; 8,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,64</t>
+          <t>5,13; 9,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,19</t>
+          <t>5,2; 8,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>25,93%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 38,5</t>
+          <t>10,56; 72,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,68</t>
+          <t>11,45; 16,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 26,38</t>
+          <t>11,72; 53,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>22,52%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 23,33</t>
+          <t>17,14; 23,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,61; 27,98</t>
+          <t>22,48; 27,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,91</t>
+          <t>20,32; 24,8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,1; 42,4</t>
+          <t>22,37; 32,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,5</t>
+          <t>29,13; 40,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,77; 46,45</t>
+          <t>26,16; 36,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,91</t>
+          <t>19,51; 26,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,77; 68,39</t>
+          <t>48,25; 58,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,28; 71,94</t>
+          <t>48,81; 59,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,48; 62,15</t>
+          <t>41,58; 52,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,37; 57,99</t>
+          <t>9,35; 39,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,24; 56,15</t>
+          <t>37,32; 44,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,45; 62,74</t>
+          <t>41,3; 49,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 54,1</t>
+          <t>35,88; 42,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,33; 48,0</t>
+          <t>11,43; 31,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>49,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>67,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>64,34%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>46,52; 59,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>60,64; 73,58</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49,88; 61,55</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44,69; 54,34</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>70,68; 80,86</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>76,53; 84,87</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64,62; 74,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>70,7; 76,73</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>62,9; 71,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>71,98; 79,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60,49; 68,56</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61,55; 66,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>10,13; 12,3</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>13,31; 15,88</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>12,77; 15,09</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 20,74</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 38,31</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>20,21; 23,05</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>23,93; 26,89</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>21,15; 24,22</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 23,12</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 22,19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>15,48; 17,34</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>19,24; 21,19</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>17,31; 19,35</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,07; 21,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 31,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,17</t>
+          <t>0,73; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,21</t>
+          <t>0,79; 3,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,77</t>
+          <t>0,42; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,17</t>
+          <t>1,32; 4,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,74</t>
+          <t>1,97; 5,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,0</t>
+          <t>1,71; 5,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,04</t>
+          <t>0,05; 3,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,13</t>
+          <t>1,27; 3,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,7</t>
+          <t>1,62; 3,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,87</t>
+          <t>1,03; 2,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,48</t>
+          <t>0,48; 3,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,75</t>
+          <t>1,85; 4,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,35</t>
+          <t>2,22; 5,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,31</t>
+          <t>2,15; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,93</t>
+          <t>3,15; 8,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,1</t>
+          <t>3,2; 6,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,76</t>
+          <t>3,05; 6,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,51</t>
+          <t>2,99; 6,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,26</t>
+          <t>0,42; 2,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,06</t>
+          <t>2,99; 5,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,37</t>
+          <t>3,0; 5,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,21</t>
+          <t>2,95; 5,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,84</t>
+          <t>1,77; 4,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,01</t>
+          <t>2,79; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,37</t>
+          <t>4,45; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,53</t>
+          <t>3,7; 7,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,24</t>
+          <t>3,84; 7,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,24</t>
+          <t>6,21; 10,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 13,83</t>
+          <t>9,12; 14,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,71</t>
+          <t>5,71; 9,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,2</t>
+          <t>5,29; 9,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,61</t>
+          <t>4,98; 7,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,34</t>
+          <t>7,28; 10,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,77</t>
+          <t>4,99; 7,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,05</t>
+          <t>5,11; 7,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,01</t>
+          <t>5,27; 9,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 13,39</t>
+          <t>8,66; 13,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,55</t>
+          <t>9,24; 14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 72,14</t>
+          <t>10,55; 71,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,74</t>
+          <t>12,37; 18,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,2</t>
+          <t>13,6; 19,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 18,37</t>
+          <t>13,01; 19,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 16,55</t>
+          <t>11,14; 16,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,23</t>
+          <t>9,5; 13,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 15,74</t>
+          <t>11,88; 15,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,83</t>
+          <t>11,8; 15,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 53,59</t>
+          <t>12,12; 56,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,74</t>
+          <t>16,66; 24,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,94; 23,61</t>
+          <t>15,96; 23,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 23,18</t>
+          <t>15,79; 23,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 23,4</t>
+          <t>16,93; 23,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,46; 32,34</t>
+          <t>23,49; 32,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,62; 42,16</t>
+          <t>32,72; 42,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,44; 36,08</t>
+          <t>27,5; 36,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,79</t>
+          <t>22,21; 27,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,59; 27,66</t>
+          <t>21,17; 27,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,87</t>
+          <t>25,75; 31,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 28,33</t>
+          <t>22,66; 28,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 24,8</t>
+          <t>20,47; 24,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 32,07</t>
+          <t>22,76; 32,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,13; 40,5</t>
+          <t>29,58; 40,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 36,33</t>
+          <t>26,41; 36,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,36</t>
+          <t>19,65; 26,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,25; 58,23</t>
+          <t>47,91; 57,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,81; 59,94</t>
+          <t>49,84; 60,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,58; 52,09</t>
+          <t>41,13; 51,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 39,45</t>
+          <t>10,95; 39,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,32; 44,89</t>
+          <t>37,41; 44,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,3; 49,54</t>
+          <t>41,39; 49,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,88; 42,87</t>
+          <t>35,36; 43,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,43; 31,8</t>
+          <t>13,22; 31,7</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,52; 59,93</t>
+          <t>46,54; 60,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>60,64; 73,58</t>
+          <t>61,26; 73,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,88; 61,55</t>
+          <t>49,95; 61,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,69; 54,34</t>
+          <t>45,55; 54,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,68; 80,86</t>
+          <t>70,77; 80,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,53; 84,87</t>
+          <t>76,31; 84,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,62; 74,74</t>
+          <t>64,7; 74,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70,7; 76,73</t>
+          <t>70,7; 76,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,9; 71,06</t>
+          <t>63,0; 71,14</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71,98; 79,03</t>
+          <t>72,05; 79,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60,49; 68,56</t>
+          <t>60,35; 68,54</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>61,55; 66,81</t>
+          <t>61,83; 67,06</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,18; 12,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,41; 15,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,78; 15,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,23; 38,31</t>
+          <t>14,31; 38,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>20,0; 22,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,87; 26,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,13; 24,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,19</t>
+          <t>16,68; 22,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,49; 17,36</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,16; 21,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,45; 19,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,23; 31,67</t>
+          <t>17,13; 30,76</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a hacer esfuerzos moderados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8039</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7862</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7467</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11450</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14691</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12254</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19488</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22553</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14626</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10404</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3624; 15083</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3584; 15811</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8522</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1674; 24596</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6160; 19911</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8478; 23617</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6785; 19950</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>166; 9820</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12207; 29913</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14308; 33107</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8431; 23804</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3415; 26657</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22580</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23955</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20188</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22348</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30827</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28438</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25320</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5676</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53407</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52393</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45508</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13630; 33298</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15241; 35838</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12715; 31108</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13339; 36714</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19998; 43693</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18618; 40254</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16878; 37186</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2157; 11861</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40643; 68601</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38980; 68809</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34096; 61839</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16557; 44999</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26660</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34796</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30734</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55235</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79671</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49469</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42254</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81895</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>121631</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84265</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72989</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17797; 38186</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30337; 56936</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24785; 47831</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20622; 42647</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>42829; 71449</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64828; 100005</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37778; 64344</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31308; 53936</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66217; 103950</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101324; 147876</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66404; 104732</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57584; 89769</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37594</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67133</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>75404</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>317178</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79111</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102587</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101438</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97937</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116705</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>169719</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>176842</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>415115</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27361; 51251</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53209; 85032</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59714; 94662</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>93691; 634774</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63792; 97162</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>83830; 122905</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84467; 124147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79403; 117945</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>98279; 137479</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>146197; 194673</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>152872; 200963</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>194008; 899329</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79369</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84168</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91164</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>113232</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>111963</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>167588</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>157101</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>136546</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>191331</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>251756</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>248265</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>249779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>64441; 95203</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68540; 102992</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75440; 112451</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>95015; 133947</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94880; 129806</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>146519; 189567</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>136622; 180068</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>121707; 152547</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>167422; 216978</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>225874; 279742</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>220846; 281381</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>227009; 275740</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>79590</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>107566</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>102858</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>84901</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>182397</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>193702</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>176415</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>155525</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>261986</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>301268</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>279273</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>240426</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66605; 96214</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>91645; 126585</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>88284; 120931</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>72328; 97858</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>164302; 198864</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>176432; 212564</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>155363; 196390</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>66628; 241957</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>237766; 284487</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>274771; 326345</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>251794; 306626</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>129115; 309603</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>111932</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>168744</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>143646</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>140947</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>253034</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>314724</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>280014</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>314990</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>364966</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>483469</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>423660</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>455937</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>97685; 126075</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>153065; 182817</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>128362; 157174</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>128790; 154656</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>236292; 270200</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>296846; 329299</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>258914; 299691</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>301045; 326319</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>342615; 386876</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>460289; 507276</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>396595; 450418</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>438142; 475182</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>365764</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>501388</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>470427</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>716808</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>724015</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>901402</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>802011</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>755865</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1089779</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1402790</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1272438</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1472673</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>333464; 400371</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>459556; 544870</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>433884; 512592</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>494994; 1322586</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>675730; 775730</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>849247; 954911</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>748953; 855052</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>619280; 823824</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1030860; 1155726</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1338548; 1480716</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1211092; 1343531</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1228718; 2206264</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>